--- a/exp/FinalSummary_20250102.xlsx
+++ b/exp/FinalSummary_20250102.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN_v4/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8813BF9F-A525-7C46-951A-C87A0C0B4081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF391BFB-8C57-5C43-9DE3-0A090FC44D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="3180" windowWidth="27640" windowHeight="16940" xr2:uid="{C2069AA1-045D-6A4D-B230-616F27DF19E0}"/>
+    <workbookView xWindow="4580" yWindow="2160" windowWidth="29320" windowHeight="16940" activeTab="2" xr2:uid="{C2069AA1-045D-6A4D-B230-616F27DF19E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
   <si>
     <t>#Layer</t>
   </si>
@@ -77,17 +79,85 @@
     <t>u_K=60, i_K=25</t>
   </si>
   <si>
+    <t>KNN (ItemPop)</t>
+  </si>
+  <si>
+    <t>MF-BPR</t>
+  </si>
+  <si>
+    <t>ENMF</t>
+  </si>
+  <si>
+    <t>GAT</t>
+  </si>
+  <si>
+    <t>NGCF (19)</t>
+  </si>
+  <si>
+    <t>NIA-GCN (20)</t>
+  </si>
+  <si>
+    <t>LightGCN (20)</t>
+  </si>
+  <si>
+    <t>DGCF (20)</t>
+  </si>
+  <si>
+    <t>SGL (21)</t>
+  </si>
+  <si>
+    <t>hyperGCN</t>
+  </si>
+  <si>
+    <t>Datasets</t>
+  </si>
+  <si>
+    <t>u_K=80, i_K=20</t>
+  </si>
+  <si>
+    <t>Mult-VAE</t>
+  </si>
+  <si>
+    <t>Amazon-book</t>
+  </si>
+  <si>
+    <t>bi edges</t>
+  </si>
+  <si>
+    <t>knn edges</t>
+  </si>
+  <si>
     <t>u_K=60, i_K=20</t>
+  </si>
+  <si>
+    <t>Yelp2018</t>
+  </si>
+  <si>
+    <t>u_K=40, i_K=18</t>
+  </si>
+  <si>
+    <t>u_K=80, i_K=18</t>
+  </si>
+  <si>
+    <t>u_K=50, i_K=20</t>
+  </si>
+  <si>
+    <t>top K values</t>
+  </si>
+  <si>
+    <t>#interaction in train set</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -108,6 +178,32 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -130,7 +226,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -190,24 +286,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -220,21 +344,30 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -570,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934AABC3-0959-1345-84A7-A56066D746A9}">
   <dimension ref="E9:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -581,404 +714,404 @@
   </cols>
   <sheetData>
     <row r="9" spans="5:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="E9" s="4"/>
-      <c r="F9" s="5" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="7" t="s">
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="7" t="s">
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="9"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="19"/>
     </row>
     <row r="10" spans="5:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5" t="s">
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5" t="s">
+      <c r="J10" s="4"/>
+      <c r="K10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5" t="s">
+      <c r="L10" s="4"/>
+      <c r="M10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5" t="s">
+      <c r="N10" s="4"/>
+      <c r="O10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5" t="s">
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R10" s="4"/>
+      <c r="R10" s="3"/>
     </row>
     <row r="11" spans="5:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="E11" s="11">
+      <c r="E11" s="21">
         <v>1</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="7">
         <v>0.35049999999999998</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13">
+      <c r="H11" s="7"/>
+      <c r="I11" s="7">
         <v>0.4325</v>
       </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13">
+      <c r="J11" s="7"/>
+      <c r="K11" s="7">
         <v>6.3100000000000003E-2</v>
       </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13">
+      <c r="L11" s="7"/>
+      <c r="M11" s="7">
         <v>5.1499999999999997E-2</v>
       </c>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13">
+      <c r="N11" s="7"/>
+      <c r="O11" s="7">
         <v>3.8399999999999997E-2</v>
       </c>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13">
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7">
         <v>2.98E-2</v>
       </c>
-      <c r="R11" s="13"/>
+      <c r="R11" s="7"/>
     </row>
     <row r="12" spans="5:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="E12" s="11"/>
+      <c r="E12" s="21"/>
       <c r="F12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="10">
         <v>0.35499999999999998</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="9">
         <f>(G12-G11)/G11</f>
         <v>1.283880171184024E-2</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="10">
         <v>0.439</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="9">
         <f>(I12-I11)/I11</f>
         <v>1.502890173410406E-2</v>
       </c>
       <c r="K12" s="1">
         <v>6.0199999999999997E-2</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="9">
         <f>(K12-K11)/K11</f>
         <v>-4.5958795562599151E-2</v>
       </c>
       <c r="M12" s="1">
         <v>4.9200000000000001E-2</v>
       </c>
-      <c r="N12" s="15">
+      <c r="N12" s="9">
         <f>(M12-M11)/M11</f>
         <v>-4.4660194174757216E-2</v>
       </c>
       <c r="O12" s="1">
         <v>4.1200000000000001E-2</v>
       </c>
-      <c r="P12" s="15">
+      <c r="P12" s="9">
         <f>(O12-O11)/O11</f>
         <v>7.2916666666666768E-2</v>
       </c>
       <c r="Q12" s="1">
         <v>3.2099999999999997E-2</v>
       </c>
-      <c r="R12" s="15">
+      <c r="R12" s="9">
         <f>(Q12-Q11)/Q11</f>
         <v>7.7181208053691164E-2</v>
       </c>
     </row>
     <row r="13" spans="5:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="E13" s="11">
+      <c r="E13" s="21">
         <v>2</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="7">
         <v>0.35460000000000003</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13">
+      <c r="H13" s="7"/>
+      <c r="I13" s="7">
         <v>0.43519999999999998</v>
       </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13">
+      <c r="J13" s="7"/>
+      <c r="K13" s="7">
         <v>6.2199999999999998E-2</v>
       </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13">
+      <c r="L13" s="7"/>
+      <c r="M13" s="7">
         <v>5.04E-2</v>
       </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13">
+      <c r="N13" s="7"/>
+      <c r="O13" s="7">
         <v>4.1099999999999998E-2</v>
       </c>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13">
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7">
         <v>3.15E-2</v>
       </c>
-      <c r="R13" s="13"/>
+      <c r="R13" s="7"/>
     </row>
     <row r="14" spans="5:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="E14" s="11"/>
+      <c r="E14" s="21"/>
       <c r="F14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="10">
         <v>0.36399999999999999</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="9">
         <f>(G14-G13)/G13</f>
         <v>2.6508742244782751E-2</v>
       </c>
       <c r="I14" s="1">
         <v>0.44769999999999999</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="9">
         <f>(I14-I13)/I13</f>
         <v>2.8722426470588262E-2</v>
       </c>
       <c r="K14" s="1">
         <v>6.3799999999999996E-2</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="9">
         <f>(K14-K13)/K13</f>
         <v>2.5723472668810247E-2</v>
       </c>
       <c r="M14" s="1">
         <v>5.2600000000000001E-2</v>
       </c>
-      <c r="N14" s="15">
+      <c r="N14" s="9">
         <f>(M14-M13)/M13</f>
         <v>4.3650793650793662E-2</v>
       </c>
       <c r="O14" s="1">
         <v>4.4499999999999998E-2</v>
       </c>
-      <c r="P14" s="15">
+      <c r="P14" s="9">
         <f>(O14-O13)/O13</f>
         <v>8.2725060827250618E-2</v>
       </c>
-      <c r="Q14" s="16">
+      <c r="Q14" s="10">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="R14" s="15">
+      <c r="R14" s="9">
         <f>(Q14-Q13)/Q13</f>
         <v>0.1111111111111112</v>
       </c>
     </row>
     <row r="15" spans="5:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="E15" s="11">
+      <c r="E15" s="21">
         <v>3</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="7">
         <v>0.3614</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="14">
+      <c r="H15" s="7"/>
+      <c r="I15" s="8">
         <v>0.44500000000000001</v>
       </c>
-      <c r="J15" s="14"/>
-      <c r="K15" s="13">
+      <c r="J15" s="8"/>
+      <c r="K15" s="7">
         <v>6.3899999999999998E-2</v>
       </c>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13">
+      <c r="L15" s="7"/>
+      <c r="M15" s="7">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="N15" s="13"/>
-      <c r="O15" s="14">
+      <c r="N15" s="7"/>
+      <c r="O15" s="8">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13">
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7">
         <v>3.1800000000000002E-2</v>
       </c>
-      <c r="R15" s="13"/>
+      <c r="R15" s="7"/>
     </row>
     <row r="16" spans="5:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="E16" s="11"/>
+      <c r="E16" s="21"/>
       <c r="F16" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G16" s="1">
         <v>0.36840000000000001</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="9">
         <f>(G16-G15)/G15</f>
         <v>1.9369120088544568E-2</v>
       </c>
       <c r="I16" s="1">
         <v>0.45519999999999999</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="9">
         <f>(I16-I15)/I15</f>
         <v>2.2921348314606713E-2</v>
       </c>
-      <c r="K16" s="16">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="L16" s="15">
+      <c r="K16" s="10">
+        <v>6.6500000000000004E-2</v>
+      </c>
+      <c r="L16" s="9">
         <f>(K16-K15)/K15</f>
-        <v>3.2863849765258288E-2</v>
+        <v>4.0688575899843586E-2</v>
       </c>
       <c r="M16" s="1">
-        <v>5.4300000000000001E-2</v>
-      </c>
-      <c r="N16" s="15">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="N16" s="9">
         <f>(M16-M15)/M15</f>
-        <v>3.4285714285714343E-2</v>
+        <v>3.6190476190476169E-2</v>
       </c>
       <c r="O16" s="1">
         <v>4.5699999999999998E-2</v>
       </c>
-      <c r="P16" s="15">
+      <c r="P16" s="9">
         <f>(O16-O15)/O15</f>
         <v>0.11463414634146331</v>
       </c>
-      <c r="Q16" s="16">
+      <c r="Q16" s="10">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="R16" s="15">
+      <c r="R16" s="9">
         <f>(Q16-Q15)/Q15</f>
         <v>0.13207547169811307</v>
       </c>
     </row>
     <row r="17" spans="5:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="E17" s="11">
+      <c r="E17" s="21">
         <v>4</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="7">
         <v>0.36149999999999999</v>
       </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13">
+      <c r="H17" s="7"/>
+      <c r="I17" s="7">
         <v>0.4456</v>
       </c>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13">
+      <c r="J17" s="7"/>
+      <c r="K17" s="7">
         <v>6.4899999999999999E-2</v>
       </c>
-      <c r="L17" s="13"/>
-      <c r="M17" s="14">
+      <c r="L17" s="7"/>
+      <c r="M17" s="8">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13">
+      <c r="N17" s="7"/>
+      <c r="O17" s="7">
         <v>4.0599999999999997E-2</v>
       </c>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13">
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7">
         <v>3.1300000000000001E-2</v>
       </c>
-      <c r="R17" s="13"/>
+      <c r="R17" s="7"/>
     </row>
     <row r="18" spans="5:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="E18" s="11"/>
+      <c r="E18" s="21"/>
       <c r="F18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G18" s="1">
         <v>0.36059999999999998</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="9">
         <f>(G18-G17)/G17</f>
         <v>-2.4896265560166307E-3</v>
       </c>
       <c r="I18" s="1">
         <v>0.44569999999999999</v>
       </c>
-      <c r="J18" s="15">
+      <c r="J18" s="9">
         <f>(I18-I17)/I17</f>
         <v>2.2441651705563058E-4</v>
       </c>
-      <c r="K18" s="1">
-        <v>6.7199999999999996E-2</v>
-      </c>
-      <c r="L18" s="15">
+      <c r="K18" s="10">
+        <v>6.7400000000000002E-2</v>
+      </c>
+      <c r="L18" s="9">
         <f>(K18-K17)/K17</f>
-        <v>3.5439137134052334E-2</v>
+        <v>3.8520801232665672E-2</v>
       </c>
       <c r="M18" s="1">
-        <v>5.4899999999999997E-2</v>
-      </c>
-      <c r="N18" s="15">
+        <v>5.5199999999999999E-2</v>
+      </c>
+      <c r="N18" s="9">
         <f>(M18-M17)/M17</f>
-        <v>3.5849056603773563E-2</v>
+        <v>4.1509433962264163E-2</v>
       </c>
       <c r="O18" s="1">
-        <v>4.6100000000000002E-2</v>
-      </c>
-      <c r="P18" s="15">
+        <v>4.6699999999999998E-2</v>
+      </c>
+      <c r="P18" s="9">
         <f>(O18-O17)/O17</f>
-        <v>0.13546798029556664</v>
+        <v>0.15024630541871925</v>
       </c>
       <c r="Q18" s="1">
-        <v>3.6299999999999999E-2</v>
-      </c>
-      <c r="R18" s="15">
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="R18" s="9">
         <f>(Q18-Q17)/Q17</f>
-        <v>0.15974440894568681</v>
+        <v>0.16932907348242809</v>
       </c>
     </row>
     <row r="19" spans="5:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3" t="s">
+      <c r="F19" s="20"/>
+      <c r="G19" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3" t="s">
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -996,4 +1129,503 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0383290D-9DBD-644D-9D43-061494AB5636}">
+  <dimension ref="F8:L20"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="20.1640625" customWidth="1"/>
+    <col min="7" max="8" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="6:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="F8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="22"/>
+    </row>
+    <row r="9" spans="6:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="F9" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="6:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="F10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12">
+        <v>1.24E-2</v>
+      </c>
+      <c r="J10" s="12">
+        <v>1.01E-2</v>
+      </c>
+      <c r="K10" s="12">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="L10" s="12">
+        <v>4.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="6:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="F11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12">
+        <v>5.8400000000000001E-2</v>
+      </c>
+      <c r="J11" s="12">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="K11" s="12">
+        <v>4.07E-2</v>
+      </c>
+      <c r="L11" s="12">
+        <v>3.15E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="6:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="F12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="J12" s="12">
+        <v>4.6800000000000001E-2</v>
+      </c>
+      <c r="K12" s="12">
+        <v>3.3799999999999997E-2</v>
+      </c>
+      <c r="L12" s="12">
+        <v>2.6100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="6:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="F13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12">
+        <v>6.2399999999999997E-2</v>
+      </c>
+      <c r="J13" s="12">
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="K13" s="12">
+        <v>3.5900000000000001E-2</v>
+      </c>
+      <c r="L13" s="12">
+        <v>2.81E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="6:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="F14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12">
+        <v>5.4300000000000001E-2</v>
+      </c>
+      <c r="J14" s="12">
+        <v>4.3099999999999999E-2</v>
+      </c>
+      <c r="K14" s="12">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="L14" s="12">
+        <v>2.35E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="6:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="F15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12">
+        <v>5.79E-2</v>
+      </c>
+      <c r="J15" s="12">
+        <v>4.7699999999999999E-2</v>
+      </c>
+      <c r="K15" s="12">
+        <v>3.44E-2</v>
+      </c>
+      <c r="L15" s="12">
+        <v>2.63E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="6:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="F16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="14">
+        <v>5.9900000000000002E-2</v>
+      </c>
+      <c r="J16" s="12">
+        <v>4.9099999999999998E-2</v>
+      </c>
+      <c r="K16" s="12">
+        <v>3.6900000000000002E-2</v>
+      </c>
+      <c r="L16" s="12">
+        <v>2.87E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="6:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="F17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12">
+        <v>6.4899999999999999E-2</v>
+      </c>
+      <c r="J17" s="15">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="K17" s="12">
+        <v>4.1099999999999998E-2</v>
+      </c>
+      <c r="L17" s="12">
+        <v>3.15E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="6:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="F18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12">
+        <v>6.54E-2</v>
+      </c>
+      <c r="J18" s="12">
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="K18" s="12">
+        <v>4.2200000000000001E-2</v>
+      </c>
+      <c r="L18" s="12">
+        <v>3.2399999999999998E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="6:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="F19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="J19" s="12">
+        <v>5.5500000000000001E-2</v>
+      </c>
+      <c r="K19" s="12">
+        <v>4.7800000000000002E-2</v>
+      </c>
+      <c r="L19" s="12">
+        <v>3.7900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="6:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="F20" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12">
+        <v>6.7400000000000002E-2</v>
+      </c>
+      <c r="J20" s="12">
+        <v>5.5199999999999999E-2</v>
+      </c>
+      <c r="K20" s="12">
+        <v>4.6699999999999998E-2</v>
+      </c>
+      <c r="L20" s="12">
+        <v>3.6600000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I10:I20">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10:J20">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10:K20">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10:L19">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10:L20">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E321F74-3331-334A-9368-BACF0F5E439A}">
+  <dimension ref="E10:J30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="5:10" ht="22" x14ac:dyDescent="0.3">
+      <c r="H10" s="24"/>
+    </row>
+    <row r="11" spans="5:10" ht="22" x14ac:dyDescent="0.3">
+      <c r="E11" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="24"/>
+    </row>
+    <row r="12" spans="5:10" ht="22" x14ac:dyDescent="0.3">
+      <c r="E12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="29">
+        <v>2380730</v>
+      </c>
+      <c r="G12" s="30">
+        <f>F12*2</f>
+        <v>4761460</v>
+      </c>
+      <c r="H12" s="29">
+        <v>5859375</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="26"/>
+    </row>
+    <row r="13" spans="5:10" ht="22" x14ac:dyDescent="0.3">
+      <c r="E13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="29">
+        <v>1268927</v>
+      </c>
+      <c r="G13" s="29">
+        <f>F13*2</f>
+        <v>2537854</v>
+      </c>
+      <c r="H13" s="29">
+        <v>2344317</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="5:10" ht="22" x14ac:dyDescent="0.3">
+      <c r="E14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="29">
+        <v>79619</v>
+      </c>
+      <c r="G14" s="31">
+        <f>F14*2</f>
+        <v>159238</v>
+      </c>
+      <c r="H14" s="32">
+        <v>92010</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="5:10" ht="22" x14ac:dyDescent="0.3">
+      <c r="G23" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="5:10" ht="22" x14ac:dyDescent="0.3">
+      <c r="E24" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="26">
+        <v>2380730</v>
+      </c>
+      <c r="G24" s="25">
+        <f>F24*2</f>
+        <v>4761460</v>
+      </c>
+      <c r="H24" s="26">
+        <v>4990103</v>
+      </c>
+      <c r="I24" s="26">
+        <v>5859375</v>
+      </c>
+      <c r="J24" s="26">
+        <v>3754354</v>
+      </c>
+    </row>
+    <row r="25" spans="5:10" ht="22" x14ac:dyDescent="0.3">
+      <c r="E25" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="26">
+        <v>1268927</v>
+      </c>
+      <c r="G25" s="26">
+        <f>F25*2</f>
+        <v>2537854</v>
+      </c>
+      <c r="H25" s="26">
+        <v>2344317</v>
+      </c>
+    </row>
+    <row r="26" spans="5:10" ht="22" x14ac:dyDescent="0.3">
+      <c r="E26" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="26">
+        <v>79619</v>
+      </c>
+      <c r="G26" s="28">
+        <f>F26*2</f>
+        <v>159238</v>
+      </c>
+      <c r="H26" s="23">
+        <v>92010</v>
+      </c>
+    </row>
+    <row r="30" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="F30" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/exp/FinalSummary_20250102.xlsx
+++ b/exp/FinalSummary_20250102.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN_v4/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF391BFB-8C57-5C43-9DE3-0A090FC44D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D71CE1C-C7DF-3B44-88F3-B3F72C6AA704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4580" yWindow="2160" windowWidth="29320" windowHeight="16940" activeTab="2" xr2:uid="{C2069AA1-045D-6A4D-B230-616F27DF19E0}"/>
+    <workbookView xWindow="2180" yWindow="880" windowWidth="31040" windowHeight="10220" activeTab="5" xr2:uid="{C2069AA1-045D-6A4D-B230-616F27DF19E0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="LightGCNvsHyperGCN" sheetId="1" r:id="rId1"/>
+    <sheet name="HyperGCNvsBaslines" sheetId="2" r:id="rId2"/>
+    <sheet name="#Edges" sheetId="3" r:id="rId3"/>
+    <sheet name="CosineVsJaccard" sheetId="4" r:id="rId4"/>
+    <sheet name="DecayImpact" sheetId="5" r:id="rId5"/>
+    <sheet name="TopK" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
   <si>
     <t>#Layer</t>
   </si>
@@ -121,21 +124,9 @@
     <t>Amazon-book</t>
   </si>
   <si>
-    <t>bi edges</t>
-  </si>
-  <si>
-    <t>knn edges</t>
-  </si>
-  <si>
-    <t>u_K=60, i_K=20</t>
-  </si>
-  <si>
     <t>Yelp2018</t>
   </si>
   <si>
-    <t>u_K=40, i_K=18</t>
-  </si>
-  <si>
     <t>u_K=80, i_K=18</t>
   </si>
   <si>
@@ -146,16 +137,56 @@
   </si>
   <si>
     <t>#interaction in train set</t>
+  </si>
+  <si>
+    <t>Cosine</t>
+  </si>
+  <si>
+    <t>Jaccard</t>
+  </si>
+  <si>
+    <t>dataset</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>NDCG</t>
+  </si>
+  <si>
+    <t>MovieLens</t>
+  </si>
+  <si>
+    <t>Prec</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>80, 10</t>
+  </si>
+  <si>
+    <t>80, 18</t>
+  </si>
+  <si>
+    <t>50, 20</t>
+  </si>
+  <si>
+    <t>edges for mix</t>
+  </si>
+  <si>
+    <t>MovieLens 100k</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -303,7 +334,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -332,6 +363,30 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -353,18 +408,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="4"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -382,6 +433,855 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>TopK!$H$8:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.1900000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2299999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2200000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F8A9-AF4F-A755-72BD6BAAFEFF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1985280416"/>
+        <c:axId val="1985282128"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1985280416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1985282128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1985282128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1985280416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D21BA8DA-8500-AAE2-E8BA-A4EC4F90F81F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -703,8 +1603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934AABC3-0959-1345-84A7-A56066D746A9}">
   <dimension ref="E9:R19"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -718,24 +1618,24 @@
       <c r="F9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="17" t="s">
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="17" t="s">
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="19"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="37"/>
     </row>
     <row r="10" spans="5:18" ht="19" x14ac:dyDescent="0.25">
       <c r="E10" s="5" t="s">
@@ -770,7 +1670,7 @@
       <c r="R10" s="3"/>
     </row>
     <row r="11" spans="5:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="E11" s="21">
+      <c r="E11" s="39">
         <v>1</v>
       </c>
       <c r="F11" s="6" t="s">
@@ -802,7 +1702,7 @@
       <c r="R11" s="7"/>
     </row>
     <row r="12" spans="5:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="E12" s="21"/>
+      <c r="E12" s="39"/>
       <c r="F12" s="2" t="s">
         <v>2</v>
       </c>
@@ -850,7 +1750,7 @@
       </c>
     </row>
     <row r="13" spans="5:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="E13" s="21">
+      <c r="E13" s="39">
         <v>2</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -882,7 +1782,7 @@
       <c r="R13" s="7"/>
     </row>
     <row r="14" spans="5:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="E14" s="21"/>
+      <c r="E14" s="39"/>
       <c r="F14" s="2" t="s">
         <v>2</v>
       </c>
@@ -930,7 +1830,7 @@
       </c>
     </row>
     <row r="15" spans="5:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="E15" s="21">
+      <c r="E15" s="39">
         <v>3</v>
       </c>
       <c r="F15" s="6" t="s">
@@ -962,7 +1862,7 @@
       <c r="R15" s="7"/>
     </row>
     <row r="16" spans="5:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="E16" s="21"/>
+      <c r="E16" s="39"/>
       <c r="F16" s="2" t="s">
         <v>2</v>
       </c>
@@ -1010,7 +1910,7 @@
       </c>
     </row>
     <row r="17" spans="5:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="E17" s="21">
+      <c r="E17" s="39">
         <v>4</v>
       </c>
       <c r="F17" s="6" t="s">
@@ -1042,7 +1942,7 @@
       <c r="R17" s="7"/>
     </row>
     <row r="18" spans="5:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="E18" s="21"/>
+      <c r="E18" s="39"/>
       <c r="F18" s="2" t="s">
         <v>2</v>
       </c>
@@ -1090,28 +1990,28 @@
       </c>
     </row>
     <row r="19" spans="5:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20" t="s">
+      <c r="F19" s="38"/>
+      <c r="G19" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20" t="s">
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20" t="s">
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1135,7 +2035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0383290D-9DBD-644D-9D43-061494AB5636}">
   <dimension ref="F8:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -1149,18 +2049,18 @@
       <c r="F8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22" t="s">
+      <c r="H8" s="40"/>
+      <c r="I8" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22" t="s">
+      <c r="J8" s="40"/>
+      <c r="K8" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="22"/>
+      <c r="L8" s="40"/>
     </row>
     <row r="9" spans="6:12" ht="22" x14ac:dyDescent="0.3">
       <c r="F9" s="13" t="s">
@@ -1468,8 +2368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E321F74-3331-334A-9368-BACF0F5E439A}">
   <dimension ref="E10:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1482,75 +2382,75 @@
   </cols>
   <sheetData>
     <row r="10" spans="5:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="H10" s="24"/>
+      <c r="H10" s="17"/>
     </row>
     <row r="11" spans="5:10" ht="22" x14ac:dyDescent="0.3">
       <c r="E11" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="24"/>
+        <v>30</v>
+      </c>
+      <c r="J11" s="17"/>
     </row>
     <row r="12" spans="5:10" ht="22" x14ac:dyDescent="0.3">
       <c r="E12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="22">
         <v>2380730</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="23">
         <f>F12*2</f>
         <v>4761460</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="22">
         <v>5859375</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="26"/>
+        <v>28</v>
+      </c>
+      <c r="J12" s="19"/>
     </row>
     <row r="13" spans="5:10" ht="22" x14ac:dyDescent="0.3">
       <c r="E13" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="29">
+        <v>27</v>
+      </c>
+      <c r="F13" s="22">
         <v>1268927</v>
       </c>
-      <c r="G13" s="29">
+      <c r="G13" s="22">
         <f>F13*2</f>
         <v>2537854</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="22">
         <v>2344317</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="5:10" ht="22" x14ac:dyDescent="0.3">
       <c r="E14" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="22">
         <v>79619</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="24">
         <f>F14*2</f>
         <v>159238</v>
       </c>
-      <c r="H14" s="32">
+      <c r="H14" s="25">
         <v>92010</v>
       </c>
       <c r="I14" s="11" t="s">
@@ -1558,74 +2458,373 @@
       </c>
     </row>
     <row r="23" spans="5:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="G23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="I23" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="J23" s="24" t="s">
-        <v>31</v>
-      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
     </row>
     <row r="24" spans="5:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="E24" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="26">
-        <v>2380730</v>
-      </c>
-      <c r="G24" s="25">
-        <f>F24*2</f>
-        <v>4761460</v>
-      </c>
-      <c r="H24" s="26">
-        <v>4990103</v>
-      </c>
-      <c r="I24" s="26">
-        <v>5859375</v>
-      </c>
-      <c r="J24" s="26">
-        <v>3754354</v>
-      </c>
+      <c r="E24" s="17"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
     </row>
     <row r="25" spans="5:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="E25" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="26">
-        <v>1268927</v>
-      </c>
-      <c r="G25" s="26">
-        <f>F25*2</f>
-        <v>2537854</v>
-      </c>
-      <c r="H25" s="26">
-        <v>2344317</v>
-      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
     </row>
     <row r="26" spans="5:10" ht="22" x14ac:dyDescent="0.3">
-      <c r="E26" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="26">
-        <v>79619</v>
-      </c>
-      <c r="G26" s="28">
-        <f>F26*2</f>
-        <v>159238</v>
-      </c>
-      <c r="H26" s="23">
-        <v>92010</v>
-      </c>
+      <c r="E26" s="17"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="16"/>
     </row>
     <row r="30" spans="5:10" x14ac:dyDescent="0.2">
-      <c r="F30" s="27"/>
+      <c r="F30" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A7CBDCC-6784-8F44-93F0-102C77F238CF}">
+  <dimension ref="E10:O15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" hidden="1" customWidth="1"/>
+    <col min="11" max="12" width="0" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E10" s="26"/>
+      <c r="F10" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="O10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E11" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E12" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="33">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="I12" s="32">
+        <v>0.44769999999999999</v>
+      </c>
+      <c r="J12">
+        <v>0.36030000000000001</v>
+      </c>
+      <c r="M12" s="32">
+        <v>0.44309999999999999</v>
+      </c>
+      <c r="N12" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" s="29">
+        <v>108023</v>
+      </c>
+    </row>
+    <row r="13" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E13" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="26">
+        <v>6.3700000000000007E-2</v>
+      </c>
+      <c r="G13" s="26">
+        <v>2.87E-2</v>
+      </c>
+      <c r="H13" s="28">
+        <f>(2*F13*G13)/(F13+G13)</f>
+        <v>3.9571212121212118E-2</v>
+      </c>
+      <c r="I13" s="26">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="J13" s="26">
+        <v>6.3399999999999998E-2</v>
+      </c>
+      <c r="K13" s="26">
+        <v>2.8400000000000002E-2</v>
+      </c>
+      <c r="L13" s="28">
+        <f>(2*J13*K13)/(J13+K13)</f>
+        <v>3.9227886710239655E-2</v>
+      </c>
+      <c r="M13" s="26">
+        <v>5.1799999999999999E-2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>42</v>
+      </c>
+      <c r="O13" s="29">
+        <v>2674042</v>
+      </c>
+    </row>
+    <row r="14" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="E14" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="26">
+        <v>4.4699999999999997E-2</v>
+      </c>
+      <c r="G14" s="26">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="H14" s="28">
+        <f>(2*F14*G14)/(F14+G14)</f>
+        <v>2.6763949843260186E-2</v>
+      </c>
+      <c r="I14" s="26">
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="J14" s="31">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="K14" s="26">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="L14" s="28">
+        <f>(2*J14*K14)/(J14+K14)</f>
+        <v>2.5648953301127216E-2</v>
+      </c>
+      <c r="M14" s="26">
+        <v>3.4599999999999999E-2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" s="30"/>
+    </row>
+    <row r="15" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="F15" s="33"/>
+      <c r="I15" s="32"/>
+      <c r="M15" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:M10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33CD200-44F2-C54B-A111-B0B0A9D3FE9C}">
+  <dimension ref="H8:N10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="8:14" ht="22" x14ac:dyDescent="0.3">
+      <c r="H8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="42">
+        <v>0</v>
+      </c>
+      <c r="J8" s="42">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="K8" s="42">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="L8" s="42">
+        <v>1E-4</v>
+      </c>
+      <c r="M8" s="42">
+        <v>1E-3</v>
+      </c>
+      <c r="N8" s="42">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="8:14" ht="22" x14ac:dyDescent="0.3">
+      <c r="H9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="43">
+        <v>0.43880000000000002</v>
+      </c>
+      <c r="J9" s="43">
+        <v>0.43869999999999998</v>
+      </c>
+      <c r="K9" s="43">
+        <v>0.43869999999999998</v>
+      </c>
+      <c r="L9" s="43">
+        <v>0.4395</v>
+      </c>
+      <c r="M9" s="43">
+        <v>0.44769999999999999</v>
+      </c>
+      <c r="N9" s="44">
+        <v>0.39610000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="8:14" ht="22" x14ac:dyDescent="0.3">
+      <c r="H10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="12">
+        <v>5.0799999999999998E-2</v>
+      </c>
+      <c r="J10" s="12">
+        <v>5.0799999999999998E-2</v>
+      </c>
+      <c r="K10" s="12">
+        <v>5.0900000000000001E-2</v>
+      </c>
+      <c r="L10" s="12">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="M10" s="12">
+        <v>5.1299999999999998E-2</v>
+      </c>
+      <c r="N10" s="12">
+        <v>3.3500000000000002E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B768F708-2A51-6C4A-8272-2D7744352A73}">
+  <dimension ref="H7:L12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="7" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>15</v>
+      </c>
+      <c r="J7">
+        <v>20</v>
+      </c>
+      <c r="K7">
+        <v>25</v>
+      </c>
+      <c r="L7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>5.1900000000000002E-2</v>
+      </c>
+      <c r="I8">
+        <v>5.2299999999999999E-2</v>
+      </c>
+      <c r="J8">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="K8">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="L8">
+        <v>5.2200000000000003E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <v>30</v>
+      </c>
+      <c r="I11">
+        <v>40</v>
+      </c>
+      <c r="J11">
+        <v>50</v>
+      </c>
+      <c r="K11">
+        <v>60</v>
+      </c>
+      <c r="L11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="J12">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="K12">
+        <v>5.2600000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/exp/FinalSummary_20250102.xlsx
+++ b/exp/FinalSummary_20250102.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN_v4/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D71CE1C-C7DF-3B44-88F3-B3F72C6AA704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25DDC68-D3CA-0643-8D85-1692C27E0434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2180" yWindow="880" windowWidth="31040" windowHeight="10220" activeTab="5" xr2:uid="{C2069AA1-045D-6A4D-B230-616F27DF19E0}"/>
+    <workbookView xWindow="2180" yWindow="880" windowWidth="31000" windowHeight="14760" activeTab="6" xr2:uid="{C2069AA1-045D-6A4D-B230-616F27DF19E0}"/>
   </bookViews>
   <sheets>
     <sheet name="LightGCNvsHyperGCN" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="CosineVsJaccard" sheetId="4" r:id="rId4"/>
     <sheet name="DecayImpact" sheetId="5" r:id="rId5"/>
     <sheet name="TopK" sheetId="6" r:id="rId6"/>
+    <sheet name="Ablation" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -182,11 +183,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -334,7 +336,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -387,6 +389,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -411,11 +422,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="4"/>
-    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1618,24 +1625,24 @@
       <c r="F9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="35" t="s">
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="35" t="s">
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="37"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="44"/>
     </row>
     <row r="10" spans="5:18" ht="19" x14ac:dyDescent="0.25">
       <c r="E10" s="5" t="s">
@@ -1670,7 +1677,7 @@
       <c r="R10" s="3"/>
     </row>
     <row r="11" spans="5:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="E11" s="39">
+      <c r="E11" s="46">
         <v>1</v>
       </c>
       <c r="F11" s="6" t="s">
@@ -1702,7 +1709,7 @@
       <c r="R11" s="7"/>
     </row>
     <row r="12" spans="5:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="E12" s="39"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="2" t="s">
         <v>2</v>
       </c>
@@ -1750,7 +1757,7 @@
       </c>
     </row>
     <row r="13" spans="5:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="E13" s="39">
+      <c r="E13" s="46">
         <v>2</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -1782,7 +1789,7 @@
       <c r="R13" s="7"/>
     </row>
     <row r="14" spans="5:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="E14" s="39"/>
+      <c r="E14" s="46"/>
       <c r="F14" s="2" t="s">
         <v>2</v>
       </c>
@@ -1830,7 +1837,7 @@
       </c>
     </row>
     <row r="15" spans="5:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="E15" s="39">
+      <c r="E15" s="46">
         <v>3</v>
       </c>
       <c r="F15" s="6" t="s">
@@ -1862,7 +1869,7 @@
       <c r="R15" s="7"/>
     </row>
     <row r="16" spans="5:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="E16" s="39"/>
+      <c r="E16" s="46"/>
       <c r="F16" s="2" t="s">
         <v>2</v>
       </c>
@@ -1910,7 +1917,7 @@
       </c>
     </row>
     <row r="17" spans="5:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="E17" s="39">
+      <c r="E17" s="46">
         <v>4</v>
       </c>
       <c r="F17" s="6" t="s">
@@ -1942,7 +1949,7 @@
       <c r="R17" s="7"/>
     </row>
     <row r="18" spans="5:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="E18" s="39"/>
+      <c r="E18" s="46"/>
       <c r="F18" s="2" t="s">
         <v>2</v>
       </c>
@@ -1990,28 +1997,28 @@
       </c>
     </row>
     <row r="19" spans="5:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38" t="s">
+      <c r="F19" s="45"/>
+      <c r="G19" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38" t="s">
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38" t="s">
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2049,18 +2056,18 @@
       <c r="F8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40" t="s">
+      <c r="H8" s="47"/>
+      <c r="I8" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40" t="s">
+      <c r="J8" s="47"/>
+      <c r="K8" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="40"/>
+      <c r="L8" s="47"/>
     </row>
     <row r="9" spans="6:12" ht="22" x14ac:dyDescent="0.3">
       <c r="F9" s="13" t="s">
@@ -2510,18 +2517,18 @@
   <sheetData>
     <row r="10" spans="5:15" x14ac:dyDescent="0.2">
       <c r="E10" s="26"/>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41" t="s">
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
       <c r="O10" t="s">
         <v>43</v>
       </c>
@@ -2681,22 +2688,22 @@
       <c r="H8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="42">
+      <c r="I8" s="34">
         <v>0</v>
       </c>
-      <c r="J8" s="42">
+      <c r="J8" s="34">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="K8" s="42">
+      <c r="K8" s="34">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="L8" s="42">
+      <c r="L8" s="34">
         <v>1E-4</v>
       </c>
-      <c r="M8" s="42">
+      <c r="M8" s="34">
         <v>1E-3</v>
       </c>
-      <c r="N8" s="42">
+      <c r="N8" s="34">
         <v>0.01</v>
       </c>
     </row>
@@ -2704,22 +2711,22 @@
       <c r="H9" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="43">
+      <c r="I9" s="35">
         <v>0.43880000000000002</v>
       </c>
-      <c r="J9" s="43">
+      <c r="J9" s="35">
         <v>0.43869999999999998</v>
       </c>
-      <c r="K9" s="43">
+      <c r="K9" s="35">
         <v>0.43869999999999998</v>
       </c>
-      <c r="L9" s="43">
+      <c r="L9" s="35">
         <v>0.4395</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M9" s="35">
         <v>0.44769999999999999</v>
       </c>
-      <c r="N9" s="44">
+      <c r="N9" s="36">
         <v>0.39610000000000001</v>
       </c>
     </row>
@@ -2755,8 +2762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B768F708-2A51-6C4A-8272-2D7744352A73}">
   <dimension ref="H7:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2827,4 +2834,110 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{402DB2D4-63AA-864F-8738-EF8C51A63386}">
+  <dimension ref="G11:M15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="11" spans="7:13" ht="22" x14ac:dyDescent="0.3">
+      <c r="G11" s="37">
+        <v>0.3589</v>
+      </c>
+      <c r="H11" s="37">
+        <v>0.43830000000000002</v>
+      </c>
+      <c r="I11" s="37">
+        <v>6.2700000000000006E-2</v>
+      </c>
+      <c r="J11" s="37">
+        <v>5.1400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="7:13" ht="22" x14ac:dyDescent="0.3">
+      <c r="G12" s="38">
+        <f>(G15-G11)/G15</f>
+        <v>1.4010989010988994E-2</v>
+      </c>
+      <c r="H12" s="38">
+        <f>(H15-H11)/H15</f>
+        <v>2.0996202814384551E-2</v>
+      </c>
+      <c r="I12" s="38">
+        <f>(I15-I11)/I15</f>
+        <v>1.5698587127158568E-2</v>
+      </c>
+      <c r="J12" s="38">
+        <f>(J15-J11)/J15</f>
+        <v>2.281368821292775E-2</v>
+      </c>
+      <c r="L12" s="40">
+        <f>AVERAGE(G12:J12)</f>
+        <v>1.8379866791364968E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="7:13" ht="22" x14ac:dyDescent="0.3">
+      <c r="G13" s="37">
+        <v>0.35680000000000001</v>
+      </c>
+      <c r="H13" s="37">
+        <v>0.44059999999999999</v>
+      </c>
+      <c r="I13" s="39">
+        <v>6.2E-2</v>
+      </c>
+      <c r="J13" s="37">
+        <v>5.0599999999999999E-2</v>
+      </c>
+      <c r="L13" s="37"/>
+    </row>
+    <row r="14" spans="7:13" ht="22" x14ac:dyDescent="0.3">
+      <c r="G14" s="38">
+        <f>(G15-G13)/G15</f>
+        <v>1.9780219780219738E-2</v>
+      </c>
+      <c r="H14" s="38">
+        <f>(H15-H13)/H15</f>
+        <v>1.5858834040652213E-2</v>
+      </c>
+      <c r="I14" s="38">
+        <f>(I15-I13)/I15</f>
+        <v>2.6687598116169654E-2</v>
+      </c>
+      <c r="J14" s="38">
+        <f>(J15-J13)/J15</f>
+        <v>3.8022813688212961E-2</v>
+      </c>
+      <c r="L14" s="40">
+        <f>AVERAGE(G14:J14)</f>
+        <v>2.5087366406313642E-2</v>
+      </c>
+      <c r="M14" s="49">
+        <f>(L12+L14)/2</f>
+        <v>2.1733616598839305E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="7:13" ht="22" x14ac:dyDescent="0.3">
+      <c r="G15" s="39">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="H15" s="37">
+        <v>0.44769999999999999</v>
+      </c>
+      <c r="I15" s="37">
+        <v>6.3700000000000007E-2</v>
+      </c>
+      <c r="J15" s="37">
+        <v>5.2600000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>